--- a/AutryDated/AutryDated.xlsx
+++ b/AutryDated/AutryDated.xlsx
@@ -124,9 +124,6 @@
     <t>88.108.30</t>
   </si>
   <si>
-    <t>no date</t>
-  </si>
-  <si>
     <t>88.108.31</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>1800-1850</t>
   </si>
   <si>
-    <t>535.G.741</t>
-  </si>
-  <si>
     <t>609.G.717</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
     <t>before 1920</t>
   </si>
   <si>
-    <t>1314.G.1</t>
-  </si>
-  <si>
     <t>2000.4.1</t>
   </si>
   <si>
@@ -688,6 +679,12 @@
     <t>2007</t>
   </si>
   <si>
+    <t>2010.4.1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>2010.42.1</t>
   </si>
   <si>
@@ -697,6 +694,9 @@
     <t>2010.47.1</t>
   </si>
   <si>
+    <t>2011.4.3</t>
+  </si>
+  <si>
     <t>2011.45.1</t>
   </si>
   <si>
@@ -727,6 +727,9 @@
     <t>before 1927</t>
   </si>
   <si>
+    <t>2012.37.2</t>
+  </si>
+  <si>
     <t>2012.37.3</t>
   </si>
   <si>
@@ -769,18 +772,33 @@
     <t>2012.37.13</t>
   </si>
   <si>
+    <t>2012.37.14</t>
+  </si>
+  <si>
+    <t>2012.37.15</t>
+  </si>
+  <si>
     <t>2012.37.17</t>
   </si>
   <si>
     <t>1946</t>
   </si>
   <si>
+    <t>2012.37.18</t>
+  </si>
+  <si>
     <t>2012.37.19</t>
   </si>
   <si>
     <t>2012.37.20</t>
   </si>
   <si>
+    <t>2012.37.23</t>
+  </si>
+  <si>
+    <t>2012.37.24</t>
+  </si>
+  <si>
     <t>2012.37.25</t>
   </si>
   <si>
@@ -829,6 +847,9 @@
     <t>2012.37.44</t>
   </si>
   <si>
+    <t>2012.37.45</t>
+  </si>
+  <si>
     <t>2012.37.46</t>
   </si>
   <si>
@@ -868,6 +889,9 @@
     <t>2015.5.1</t>
   </si>
   <si>
+    <t>2015.6.1</t>
+  </si>
+  <si>
     <t>2015.12.1</t>
   </si>
   <si>
@@ -881,6 +905,12 @@
   </si>
   <si>
     <t>2015.25.1</t>
+  </si>
+  <si>
+    <t>2016.10.2</t>
+  </si>
+  <si>
+    <t>1995</t>
   </si>
   <si>
     <t>3023.G.49</t>
@@ -1054,13 +1084,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D192"/>
   <sheetFormatPr defaultColWidth="10.00" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="10.00" style="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="54" customFormat="1" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="1" s="22" customFormat="1" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1375,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>1900</v>
@@ -1356,10 +1386,10 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
         <v>1900</v>
@@ -1370,10 +1400,10 @@
     </row>
     <row r="23" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C23" s="2">
         <v>1853</v>
@@ -1384,10 +1414,10 @@
     </row>
     <row r="24" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C24" s="2">
         <v>1896</v>
@@ -1398,10 +1428,10 @@
     </row>
     <row r="25" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C25" s="2">
         <v>1853</v>
@@ -1412,10 +1442,10 @@
     </row>
     <row r="26" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C26" s="2">
         <v>1978</v>
@@ -1426,10 +1456,10 @@
     </row>
     <row r="27" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C27" s="2">
         <v>1834</v>
@@ -1440,10 +1470,10 @@
     </row>
     <row r="28" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C28" s="2">
         <v>1923</v>
@@ -1454,10 +1484,10 @@
     </row>
     <row r="29" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2">
         <v>1978</v>
@@ -1468,10 +1498,10 @@
     </row>
     <row r="30" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C30" s="2">
         <v>1913</v>
@@ -1482,10 +1512,10 @@
     </row>
     <row r="31" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C31" s="2">
         <v>1912</v>
@@ -1496,10 +1526,10 @@
     </row>
     <row r="32" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C32" s="2">
         <v>1927</v>
@@ -1510,10 +1540,10 @@
     </row>
     <row r="33" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C33" s="2">
         <v>1849</v>
@@ -1524,10 +1554,10 @@
     </row>
     <row r="34" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C34" s="2">
         <v>1820</v>
@@ -1538,10 +1568,10 @@
     </row>
     <row r="35" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C35" s="2">
         <v>1900</v>
@@ -1552,10 +1582,10 @@
     </row>
     <row r="36" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C36" s="2">
         <v>1903</v>
@@ -1566,10 +1596,10 @@
     </row>
     <row r="37" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C37" s="2">
         <v>1990</v>
@@ -1580,10 +1610,10 @@
     </row>
     <row r="38" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C38" s="2">
         <v>1923</v>
@@ -1594,10 +1624,10 @@
     </row>
     <row r="39" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C39" s="2">
         <v>1842</v>
@@ -1608,10 +1638,10 @@
     </row>
     <row r="40" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2">
         <v>1842</v>
@@ -1622,10 +1652,10 @@
     </row>
     <row r="41" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C41" s="2">
         <v>1975</v>
@@ -1636,10 +1666,10 @@
     </row>
     <row r="42" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C42" s="2">
         <v>1991</v>
@@ -1650,10 +1680,10 @@
     </row>
     <row r="43" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2">
         <v>1990</v>
@@ -1664,10 +1694,10 @@
     </row>
     <row r="44" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C44" s="2">
         <v>1870</v>
@@ -1678,10 +1708,10 @@
     </row>
     <row r="45" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C45" s="2">
         <v>1867</v>
@@ -1692,10 +1722,10 @@
     </row>
     <row r="46" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C46" s="2">
         <v>1895</v>
@@ -1706,10 +1736,10 @@
     </row>
     <row r="47" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C47" s="2">
         <v>1875</v>
@@ -1720,10 +1750,10 @@
     </row>
     <row r="48" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C48" s="2">
         <v>1900</v>
@@ -1734,10 +1764,10 @@
     </row>
     <row r="49" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C49" s="2">
         <v>1827</v>
@@ -1748,10 +1778,10 @@
     </row>
     <row r="50" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C50" s="2">
         <v>1872</v>
@@ -1762,10 +1792,10 @@
     </row>
     <row r="51" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="2">
         <v>1867</v>
@@ -1776,10 +1806,10 @@
     </row>
     <row r="52" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C52" s="2">
         <v>1992</v>
@@ -1790,10 +1820,10 @@
     </row>
     <row r="53" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2">
         <v>1970</v>
@@ -1804,10 +1834,10 @@
     </row>
     <row r="54" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C54" s="2">
         <v>1876</v>
@@ -1818,10 +1848,10 @@
     </row>
     <row r="55" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C55" s="2">
         <v>1847</v>
@@ -1832,10 +1862,10 @@
     </row>
     <row r="56" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C56" s="2">
         <v>1882</v>
@@ -1846,10 +1876,10 @@
     </row>
     <row r="57" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A57" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="2">
         <v>1853</v>
@@ -1860,10 +1890,10 @@
     </row>
     <row r="58" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C58" s="2">
         <v>1920</v>
@@ -1874,10 +1904,10 @@
     </row>
     <row r="59" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C59" s="2">
         <v>1867</v>
@@ -1888,10 +1918,10 @@
     </row>
     <row r="60" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C60" s="2">
         <v>1847</v>
@@ -1902,10 +1932,10 @@
     </row>
     <row r="61" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C61" s="2">
         <v>1845</v>
@@ -1916,10 +1946,10 @@
     </row>
     <row r="62" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C62" s="2">
         <v>1987</v>
@@ -1930,10 +1960,10 @@
     </row>
     <row r="63" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2">
         <v>1987</v>
@@ -1944,10 +1974,10 @@
     </row>
     <row r="64" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2">
         <v>1987</v>
@@ -1958,10 +1988,10 @@
     </row>
     <row r="65" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="2">
         <v>1987</v>
@@ -1972,10 +2002,10 @@
     </row>
     <row r="66" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2">
         <v>1987</v>
@@ -1986,10 +2016,10 @@
     </row>
     <row r="67" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2">
         <v>1987</v>
@@ -2000,10 +2030,10 @@
     </row>
     <row r="68" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C68" s="2">
         <v>1880</v>
@@ -2014,10 +2044,10 @@
     </row>
     <row r="69" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C69" s="2">
         <v>1880</v>
@@ -2028,10 +2058,10 @@
     </row>
     <row r="70" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C70" s="2">
         <v>1976</v>
@@ -2042,10 +2072,10 @@
     </row>
     <row r="71" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C71" s="2">
         <v>1948</v>
@@ -2056,10 +2086,10 @@
     </row>
     <row r="72" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2">
         <v>1882</v>
@@ -2070,10 +2100,10 @@
     </row>
     <row r="73" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2">
         <v>1880</v>
@@ -2084,10 +2114,10 @@
     </row>
     <row r="74" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C74" s="2">
         <v>1863</v>
@@ -2098,10 +2128,10 @@
     </row>
     <row r="75" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C75" s="2">
         <v>1853</v>
@@ -2112,10 +2142,10 @@
     </row>
     <row r="76" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C76" s="2">
         <v>1910</v>
@@ -2126,10 +2156,10 @@
     </row>
     <row r="77" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C77" s="2">
         <v>1931</v>
@@ -2140,10 +2170,10 @@
     </row>
     <row r="78" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2">
         <v>1833</v>
@@ -2154,7 +2184,7 @@
     </row>
     <row r="79" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A79" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>25</v>
@@ -2168,10 +2198,10 @@
     </row>
     <row r="80" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C80" s="2">
         <v>1900</v>
@@ -2182,10 +2212,10 @@
     </row>
     <row r="81" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C81" s="2">
         <v>1920</v>
@@ -2196,10 +2226,10 @@
     </row>
     <row r="82" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C82" s="2">
         <v>1912</v>
@@ -2210,10 +2240,10 @@
     </row>
     <row r="83" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C83" s="2">
         <v>1610</v>
@@ -2224,10 +2254,10 @@
     </row>
     <row r="84" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C84" s="2">
         <v>1865</v>
@@ -2238,10 +2268,10 @@
     </row>
     <row r="85" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C85" s="2">
         <v>1800</v>
@@ -2252,16 +2282,16 @@
     </row>
     <row r="86" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C86" s="2">
-        <v>1800</v>
+        <v>1922</v>
       </c>
       <c r="D86" s="2">
-        <v>1850</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2272,10 +2302,10 @@
         <v>153</v>
       </c>
       <c r="C87" s="2">
-        <v>1922</v>
+        <v>1885</v>
       </c>
       <c r="D87" s="2">
-        <v>1922</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2286,10 +2316,10 @@
         <v>155</v>
       </c>
       <c r="C88" s="2">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="D88" s="2">
-        <v>1900</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2300,10 +2330,10 @@
         <v>157</v>
       </c>
       <c r="C89" s="2">
-        <v>1890</v>
+        <v>1850</v>
       </c>
       <c r="D89" s="2">
-        <v>1890</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2311,7 +2341,7 @@
         <v>158</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C90" s="2">
         <v>1850</v>
@@ -2322,16 +2352,16 @@
     </row>
     <row r="91" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="C91" s="2">
-        <v>1850</v>
+        <v>1880</v>
       </c>
       <c r="D91" s="2">
-        <v>1870</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2339,21 +2369,27 @@
         <v>161</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="C92" s="2">
-        <v>1880</v>
+        <v>1896</v>
       </c>
       <c r="D92" s="2">
-        <v>1920</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>23</v>
+      <c r="C93" s="2">
+        <v>1838</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1838</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2361,41 +2397,41 @@
         <v>164</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="C94" s="2">
-        <v>1896</v>
+        <v>2001</v>
       </c>
       <c r="D94" s="2">
-        <v>1896</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A95" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C95" s="2">
-        <v>1838</v>
+        <v>2000</v>
       </c>
       <c r="D95" s="2">
-        <v>1838</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A96" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="D96" s="2">
-        <v>2002</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2403,27 +2439,27 @@
         <v>169</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2">
-        <v>2000</v>
+        <v>1867</v>
       </c>
       <c r="D97" s="2">
-        <v>2000</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A98" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C98" s="2">
-        <v>1990</v>
+        <v>2003</v>
       </c>
       <c r="D98" s="2">
-        <v>1990</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2431,69 +2467,69 @@
         <v>172</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="C99" s="2">
-        <v>1867</v>
+        <v>2002</v>
       </c>
       <c r="D99" s="2">
-        <v>1867</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A100" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C100" s="2">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="D100" s="2">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="101" s="54" customFormat="1" ht="12.75" customHeight="1" outlineLevel="0">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="101" s="22" customFormat="1" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A101" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C101" s="2">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="D101" s="2">
-        <v>2002</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A102" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C102" s="2">
-        <v>1997</v>
+        <v>1966</v>
       </c>
       <c r="D102" s="2">
-        <v>1997</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A103" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C103" s="2">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="D103" s="2">
-        <v>1994</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2504,10 +2540,10 @@
         <v>182</v>
       </c>
       <c r="C104" s="2">
-        <v>1966</v>
+        <v>2004</v>
       </c>
       <c r="D104" s="2">
-        <v>1966</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2515,125 +2551,125 @@
         <v>183</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C105" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="D105" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A106" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C106" s="2">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="D106" s="2">
-        <v>2004</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A107" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C107" s="2">
-        <v>2005</v>
+        <v>1988</v>
       </c>
       <c r="D107" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A108" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C108" s="2">
-        <v>1999</v>
+        <v>1843</v>
       </c>
       <c r="D108" s="2">
-        <v>1999</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A109" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C109" s="2">
-        <v>1988</v>
+        <v>1965</v>
       </c>
       <c r="D109" s="2">
-        <v>2006</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A110" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C110" s="2">
-        <v>1843</v>
+        <v>2006</v>
       </c>
       <c r="D110" s="2">
-        <v>1843</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A111" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C111" s="2">
-        <v>1965</v>
+        <v>2001</v>
       </c>
       <c r="D111" s="2">
-        <v>1965</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A112" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C112" s="2">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="D112" s="2">
-        <v>2006</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A113" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C113" s="2">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="D113" s="2">
-        <v>2001</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2641,7 +2677,7 @@
         <v>200</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C114" s="2">
         <v>1989</v>
@@ -2652,10 +2688,10 @@
     </row>
     <row r="115" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A115" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C115" s="2">
         <v>1989</v>
@@ -2666,10 +2702,10 @@
     </row>
     <row r="116" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A116" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C116" s="2">
         <v>1989</v>
@@ -2680,16 +2716,16 @@
     </row>
     <row r="117" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A117" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C117" s="2">
-        <v>1989</v>
+        <v>1941</v>
       </c>
       <c r="D117" s="2">
-        <v>1992</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2697,13 +2733,13 @@
         <v>205</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C118" s="2">
-        <v>1989</v>
+        <v>2006</v>
       </c>
       <c r="D118" s="2">
-        <v>1992</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2711,27 +2747,27 @@
         <v>206</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C119" s="2">
-        <v>1941</v>
+        <v>2006</v>
       </c>
       <c r="D119" s="2">
-        <v>1941</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A120" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C120" s="2">
-        <v>2006</v>
+        <v>1966</v>
       </c>
       <c r="D120" s="2">
-        <v>2006</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2739,7 +2775,7 @@
         <v>209</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C121" s="2">
         <v>2006</v>
@@ -2756,10 +2792,10 @@
         <v>211</v>
       </c>
       <c r="C122" s="2">
-        <v>1966</v>
+        <v>2005</v>
       </c>
       <c r="D122" s="2">
-        <v>1970</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2767,21 +2803,21 @@
         <v>212</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C123" s="2">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D123" s="2">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A124" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C124" s="2">
         <v>2005</v>
@@ -2795,10 +2831,10 @@
         <v>215</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C125" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D125" s="2">
         <v>2008</v>
@@ -2806,16 +2842,16 @@
     </row>
     <row r="126" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A126" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C126" s="2">
-        <v>2005</v>
+        <v>1870</v>
       </c>
       <c r="D126" s="2">
-        <v>2009</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2823,27 +2859,27 @@
         <v>218</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C127" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D127" s="2">
-        <v>2008</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A128" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C128" s="2">
-        <v>1870</v>
+        <v>1997</v>
       </c>
       <c r="D128" s="2">
-        <v>1929</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2854,10 +2890,10 @@
         <v>222</v>
       </c>
       <c r="C129" s="2">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="D129" s="2">
-        <v>2004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2865,41 +2901,41 @@
         <v>223</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C130" s="2">
-        <v>1997</v>
+        <v>1950</v>
       </c>
       <c r="D130" s="2">
-        <v>1997</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A131" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C131" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D131" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A132" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="C132" s="2">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D132" s="2">
-        <v>2010</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1" outlineLevel="0">
@@ -2907,10 +2943,10 @@
         <v>228</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="C133" s="2">
-        <v>2005</v>
+        <v>1950</v>
       </c>
       <c r="D133" s="2">
         <v>2005</v>
@@ -2921,7 +2957,7 @@
         <v>229</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2">
         <v>1900</v>
@@ -2963,7 +2999,7 @@
         <v>234</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C137" s="2">
         <v>2005</v>
@@ -3005,13 +3041,13 @@
         <v>239</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="C140" s="2">
-        <v>1931</v>
+        <v>1880</v>
       </c>
       <c r="D140" s="2">
-        <v>1931</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1" outlineLevel="0">
@@ -3019,13 +3055,13 @@
         <v>240</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="C141" s="2">
-        <v>1985</v>
+        <v>1931</v>
       </c>
       <c r="D141" s="2">
-        <v>1985</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1" outlineLevel="0">
@@ -3033,13 +3069,13 @@
         <v>241</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="C142" s="2">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="D142" s="2">
-        <v>1994</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1" outlineLevel="0">
@@ -3047,77 +3083,77 @@
         <v>242</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="C143" s="2">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="D143" s="2">
-        <v>1989</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A144" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C144" s="2">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="D144" s="2">
-        <v>1986</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A145" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C145" s="2">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="D145" s="2">
-        <v>1980</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A146" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="C146" s="2">
-        <v>1899</v>
+        <v>1980</v>
       </c>
       <c r="D146" s="2">
-        <v>1899</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A147" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C147" s="2">
-        <v>1844</v>
+        <v>1899</v>
       </c>
       <c r="D147" s="2">
-        <v>1844</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A148" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C148" s="2">
         <v>1844</v>
@@ -3131,488 +3167,614 @@
         <v>253</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C149" s="2">
-        <v>1946</v>
+        <v>1844</v>
       </c>
       <c r="D149" s="2">
-        <v>1946</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A150" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="C150" s="2">
-        <v>1931</v>
+        <v>1880</v>
       </c>
       <c r="D150" s="2">
-        <v>1931</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A151" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C151" s="2">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="D151" s="2">
-        <v>1990</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="152" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A152" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="C152" s="2">
-        <v>1904</v>
+        <v>1946</v>
       </c>
       <c r="D152" s="2">
-        <v>1904</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="153" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A153" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C153" s="2">
-        <v>1943</v>
+        <v>1885</v>
       </c>
       <c r="D153" s="2">
-        <v>1947</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A154" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="C154" s="2">
-        <v>1982</v>
+        <v>1931</v>
       </c>
       <c r="D154" s="2">
-        <v>1982</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A155" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C155" s="2">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="D155" s="2">
-        <v>1982</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="156" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A156" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="C156" s="2">
-        <v>1979</v>
+        <v>1945</v>
       </c>
       <c r="D156" s="2">
-        <v>1979</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="157" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A157" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C157" s="2">
-        <v>1986</v>
+        <v>1880</v>
       </c>
       <c r="D157" s="2">
-        <v>1986</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A158" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C158" s="2">
-        <v>1985</v>
+        <v>1904</v>
       </c>
       <c r="D158" s="2">
-        <v>1985</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="159" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A159" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="C159" s="2">
-        <v>1997</v>
+        <v>1943</v>
       </c>
       <c r="D159" s="2">
-        <v>1997</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="160" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A160" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C160" s="2">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="D160" s="2">
-        <v>1977</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A161" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C161" s="2">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="D161" s="2">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="162" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A162" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="C162" s="2">
-        <v>1997</v>
+        <v>1979</v>
       </c>
       <c r="D162" s="2">
-        <v>1997</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="163" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A163" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="C163" s="2">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="D163" s="2">
-        <v>1999</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="164" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A164" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C164" s="2">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="D164" s="2">
-        <v>2013</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="165" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A165" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="C165" s="2">
-        <v>2013</v>
+        <v>1997</v>
       </c>
       <c r="D165" s="2">
-        <v>2013</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="166" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A166" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="C166" s="2">
-        <v>2004</v>
+        <v>1977</v>
       </c>
       <c r="D166" s="2">
-        <v>2004</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="167" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A167" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C167" s="2">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="D167" s="2">
-        <v>2013</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="168" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A168" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="C168" s="2">
-        <v>2014</v>
+        <v>1997</v>
       </c>
       <c r="D168" s="2">
-        <v>2014</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="169" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A169" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="C169" s="2">
-        <v>1967</v>
+        <v>1950</v>
       </c>
       <c r="D169" s="2">
-        <v>1967</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A170" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="C170" s="2">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="D170" s="2">
-        <v>2011</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="171" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A171" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C171" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D171" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="172" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A172" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="C172" s="2">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="D172" s="2">
-        <v>2003</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="173" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A173" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C173" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D173" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="174" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A174" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C174" s="2">
-        <v>1975</v>
+        <v>2013</v>
       </c>
       <c r="D174" s="2">
-        <v>1999</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="175" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A175" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="C175" s="2">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="D175" s="2">
-        <v>2006</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="176" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A176" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C176" s="2">
-        <v>1840</v>
+        <v>1967</v>
       </c>
       <c r="D176" s="2">
-        <v>1860</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="177" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A177" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="C177" s="2">
-        <v>1850</v>
+        <v>2011</v>
       </c>
       <c r="D177" s="2">
-        <v>1870</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="178" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A178" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>47</v>
+        <v>287</v>
       </c>
       <c r="C178" s="2">
-        <v>1978</v>
+        <v>2014</v>
       </c>
       <c r="D178" s="2">
-        <v>1978</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="179" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A179" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="C179" s="2">
-        <v>1978</v>
+        <v>1955</v>
       </c>
       <c r="D179" s="2">
-        <v>1978</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="180" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A180" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C180" s="2">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="D180" s="2">
-        <v>1978</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="181" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A181" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C181" s="2">
-        <v>1978</v>
+        <v>2003</v>
       </c>
       <c r="D181" s="2">
-        <v>1978</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="182" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A182" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="C182" s="2">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="D182" s="2">
-        <v>1978</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1" outlineLevel="0">
       <c r="A183" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183" s="2">
+        <v>2006</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="184" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A184" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C183" s="2">
+      <c r="B184" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D184" s="2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="185" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A185" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C185" s="2">
+        <v>1840</v>
+      </c>
+      <c r="D185" s="2">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="186" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A186" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1850</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="187" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A187" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C187" s="2">
         <v>1978</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D187" s="2">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="188" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A188" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C188" s="2">
+        <v>1978</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="189" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A189" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1978</v>
+      </c>
+      <c r="D189" s="2">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="190" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A190" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1978</v>
+      </c>
+      <c r="D190" s="2">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="191" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A191" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1978</v>
+      </c>
+      <c r="D191" s="2">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="192" ht="12.75" customHeight="1" outlineLevel="0">
+      <c r="A192" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1978</v>
+      </c>
+      <c r="D192" s="2">
         <v>1978</v>
       </c>
     </row>
